--- a/biology/Microbiologie/Amphritea/Amphritea.xlsx
+++ b/biology/Microbiologie/Amphritea/Amphritea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphritea sont un genre de bactéries de la famille Oceanospirillaceae de l'ordre Oceanospirillales. Ce sont des bactéries marines à Gram négatif de la classe des Gammaproteobacteria dans le phylum Pseudomonadota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est sur un prélèvement d'une espèce de moule abyssale du genre Bathymodiolus effectué dans le champ hydrothermal de Logatchev sur la dorsale médio-atlantique à une profondeur d'environ 3 000 m qu'a pu être isolée la souche M41 qui deviendra la souche type de l'espèce Amphritea atlantica, espèce type du nouveau genre de bactéries marines Amphritea[1].  Le nom est validé par l'ICSP et publié en novembre 2005 dans une publication de l'IJSEM[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est sur un prélèvement d'une espèce de moule abyssale du genre Bathymodiolus effectué dans le champ hydrothermal de Logatchev sur la dorsale médio-atlantique à une profondeur d'environ 3 000 m qu'a pu être isolée la souche M41 qui deviendra la souche type de l'espèce Amphritea atlantica, espèce type du nouveau genre de bactéries marines Amphritea.  Le nom est validé par l'ICSP et publié en novembre 2005 dans une publication de l'IJSEM.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du nom du genre Amphritea est la suivante : Am.phri’tea N.L. fem. n. Amphritea, le nom d'un genre bactérien; vient du Gr. fem. n. Amphrite, une nymphe de l'océan dans la mythologie grecque, fait référence à l'habitat de cette bactérie[3],[4]. 
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom du genre Amphritea est la suivante : Am.phri’tea N.L. fem. n. Amphritea, le nom d'un genre bactérien; vient du Gr. fem. n. Amphrite, une nymphe de l'océan dans la mythologie grecque, fait référence à l'habitat de cette bactérie,. 
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (20 novembre 2022)[5], le genre des Amphritea comprend 7 espèces publiées de manière valide[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (20 novembre 2022), le genre des Amphritea comprend 7 espèces publiées de manière valide :
 Amphritea atlantica Gärtner et al. 2008
 Amphritea balenae Miyazaki et al. 2008
 Amphritea ceti Kim et al. 2014
